--- a/html/resources/contitions.xlsx
+++ b/html/resources/contitions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\userdata\jonasn84\shared\experiments\sbtg_pp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\userdata\jonasn84\shared\experiments\soBeU_pp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22230" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="14">
   <si>
     <t>playerId</t>
   </si>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -494,18 +494,18 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -514,18 +514,18 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -608,10 +608,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -628,10 +628,10 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -648,10 +648,10 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -659,13 +659,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -679,19 +679,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -699,19 +699,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -719,13 +719,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -748,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -768,10 +768,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -788,10 +788,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -859,73 +859,73 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -948,10 +948,10 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -968,10 +968,10 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -988,10 +988,10 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1079,13 +1079,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -1119,19 +1119,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -1148,10 +1148,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -1168,10 +1168,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1188,10 +1188,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -1254,6 +1254,86 @@
         <v>1</v>
       </c>
       <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
         <v>2</v>
       </c>
     </row>
@@ -1262,5 +1342,6 @@
     <sortCondition ref="F2:F41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>